--- a/output/1Y_P20_1VAL-D.xlsx
+++ b/output/1Y_P20_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>13.7208</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>728.8205</v>
       </c>
-      <c r="G2" s="1">
-        <v>728.8205</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.108</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.7208</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.108</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>14.2021</v>
       </c>
+      <c r="E3" s="1">
+        <v>728.8205</v>
+      </c>
       <c r="F3" s="1">
         <v>704.1212</v>
       </c>
-      <c r="G3" s="1">
-        <v>1432.9417</v>
-      </c>
       <c r="H3" s="1">
-        <v>20245.1735</v>
+        <v>10297.0672</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.9573</v>
+        <v>10297.0672</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.7208</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20245.1735</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0149</v>
+        <v>0.0297</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>13.9876</v>
       </c>
+      <c r="E4" s="1">
+        <v>1432.9417</v>
+      </c>
       <c r="F4" s="1">
         <v>714.9189</v>
       </c>
-      <c r="G4" s="1">
-        <v>2147.8606</v>
-      </c>
       <c r="H4" s="1">
-        <v>29887.6954</v>
+        <v>19939.527</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.9674</v>
+        <v>19939.527</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.9573</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29887.6954</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0118</v>
+        <v>-0.0176</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>12.8818</v>
       </c>
+      <c r="E5" s="1">
+        <v>2147.8606</v>
+      </c>
       <c r="F5" s="1">
         <v>776.289</v>
       </c>
-      <c r="G5" s="1">
-        <v>2924.1497</v>
-      </c>
       <c r="H5" s="1">
-        <v>37472.9778</v>
+        <v>27524.8339</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.6792</v>
+        <v>27524.8339</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.9674</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>37472.9778</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0605</v>
+        <v>-0.08069999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>12.8509</v>
       </c>
+      <c r="E6" s="1">
+        <v>2924.1497</v>
+      </c>
       <c r="F6" s="1">
         <v>778.1556</v>
       </c>
-      <c r="G6" s="1">
-        <v>3702.3053</v>
-      </c>
       <c r="H6" s="1">
-        <v>47331.011</v>
+        <v>37382.914</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.5051</v>
+        <v>37382.914</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.6792</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>47331.011</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.003</v>
+        <v>-0.0038</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>13.8614</v>
       </c>
+      <c r="E7" s="1">
+        <v>3702.3053</v>
+      </c>
       <c r="F7" s="1">
         <v>721.4279</v>
       </c>
-      <c r="G7" s="1">
-        <v>4423.7331</v>
-      </c>
       <c r="H7" s="1">
-        <v>61001.0679</v>
+        <v>51052.9385</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.5632</v>
+        <v>51052.9385</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.5051</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61001.0679</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.064</v>
+        <v>0.0775</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>14.3229</v>
       </c>
+      <c r="E8" s="1">
+        <v>4423.7331</v>
+      </c>
       <c r="F8" s="1">
         <v>698.1826</v>
       </c>
-      <c r="G8" s="1">
-        <v>5121.9158</v>
-      </c>
       <c r="H8" s="1">
-        <v>72980.12880000001</v>
+        <v>63032.0037</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.6668</v>
+        <v>63032.0037</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.5632</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72980.12880000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0279</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>14.2341</v>
       </c>
+      <c r="E9" s="1">
+        <v>5121.9158</v>
+      </c>
       <c r="F9" s="1">
         <v>702.5383</v>
       </c>
-      <c r="G9" s="1">
-        <v>5824.454</v>
-      </c>
       <c r="H9" s="1">
-        <v>82475.4338</v>
+        <v>72527.3514</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.7352</v>
+        <v>72527.3514</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.6668</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82475.4338</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0061</v>
+        <v>-0.0069</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>13.7456</v>
       </c>
+      <c r="E10" s="1">
+        <v>5824.454</v>
+      </c>
       <c r="F10" s="1">
         <v>727.5055</v>
       </c>
-      <c r="G10" s="1">
-        <v>6551.9596</v>
-      </c>
       <c r="H10" s="1">
-        <v>89593.4605</v>
+        <v>79645.3316</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.7363</v>
+        <v>79645.3316</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.7352</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89593.4605</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0312</v>
+        <v>-0.0349</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>14.5325</v>
       </c>
+      <c r="E11" s="1">
+        <v>6551.9596</v>
+      </c>
       <c r="F11" s="1">
         <v>688.1129</v>
       </c>
-      <c r="G11" s="1">
-        <v>7240.0724</v>
-      </c>
       <c r="H11" s="1">
-        <v>104670.4507</v>
+        <v>94722.33440000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.812</v>
+        <v>94722.33440000001</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>13.7363</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.75</v>
       </c>
-      <c r="L11" s="1">
-        <v>4422.5727</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-5577.4273</v>
+        <v>3931.5065</v>
       </c>
       <c r="O11" s="1">
-        <v>4422.5727</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>109093.0234</v>
+        <v>-6068.4935</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0954</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>14.0538</v>
       </c>
+      <c r="E12" s="1">
+        <v>7240.0724</v>
+      </c>
       <c r="F12" s="1">
-        <v>868.8957</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8108.9681</v>
+        <v>851.4248</v>
       </c>
       <c r="H12" s="1">
-        <v>113370.6721</v>
+        <v>101222.7282</v>
       </c>
       <c r="I12" s="1">
-        <v>112211.2863</v>
+        <v>3931.5065</v>
       </c>
       <c r="J12" s="1">
-        <v>13.8379</v>
+        <v>105154.2347</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101965.7532</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.0835</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-12211.2863</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>2211.2863</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>115581.9584</v>
+        <v>-11965.7532</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0295</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>13.1873</v>
       </c>
+      <c r="E13" s="1">
+        <v>8091.4972</v>
+      </c>
       <c r="F13" s="1">
-        <v>925.9884</v>
-      </c>
-      <c r="G13" s="1">
-        <v>9034.9565</v>
+        <v>907.3695</v>
       </c>
       <c r="H13" s="1">
-        <v>118528.6903</v>
+        <v>106151.5421</v>
       </c>
       <c r="I13" s="1">
-        <v>124422.5727</v>
+        <v>1965.7532</v>
       </c>
       <c r="J13" s="1">
-        <v>13.7712</v>
+        <v>108117.2953</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113931.5065</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.0804</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-12211.2863</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>118528.6903</v>
+        <v>-11965.7532</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0562</v>
+        <v>-0.0611</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>13.0538</v>
       </c>
+      <c r="E14" s="1">
+        <v>8998.866599999999</v>
+      </c>
       <c r="F14" s="1">
-        <v>-9034.9565</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-8091.4972</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116860.1817</v>
       </c>
       <c r="I14" s="1">
-        <v>124422.5727</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.7712</v>
+        <v>116860.1817</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113931.5065</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.6607</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>117328.8481</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>117328.8481</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117328.8481</v>
+        <v>105076.9912</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0871</v>
+        <v>-0.0106</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>13.7208</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>728.8205</v>
       </c>
       <c r="G2" s="1">
-        <v>728.8205</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.108</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.7208</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.108</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>14.2021</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>728.8205</v>
       </c>
       <c r="F3" s="1">
         <v>686.768</v>
       </c>
       <c r="G3" s="1">
-        <v>1415.5885</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10297.0672</v>
       </c>
       <c r="I3" s="1">
-        <v>19753.5476</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.9543</v>
+        <v>10297.0672</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9753.5476</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.3826</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9753.5476</v>
       </c>
-      <c r="O3" s="1">
-        <v>246.4524</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20246.4524</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.015</v>
+        <v>0.0297</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>13.9876</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1415.5885</v>
       </c>
       <c r="F4" s="1">
         <v>732.5383</v>
       </c>
       <c r="G4" s="1">
-        <v>2148.1267</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29891.3984</v>
+        <v>19698.055</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>246.4524</v>
       </c>
       <c r="J4" s="1">
-        <v>13.9657</v>
+        <v>19944.5074</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.1284</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10246.4524</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29891.3984</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0117</v>
+        <v>-0.0174</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>12.8818</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2148.1267</v>
       </c>
       <c r="F5" s="1">
         <v>776.289</v>
       </c>
       <c r="G5" s="1">
-        <v>2924.4158</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>37476.388</v>
+        <v>27528.2442</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.6779</v>
+        <v>27528.2442</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.9657</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>37476.388</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0605</v>
+        <v>-0.08069999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>12.8509</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2924.4158</v>
       </c>
       <c r="F6" s="1">
         <v>778.1556</v>
       </c>
       <c r="G6" s="1">
-        <v>3702.5714</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>47334.4131</v>
+        <v>37386.316</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.5041</v>
+        <v>37386.316</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.6779</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>47334.4131</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.003</v>
+        <v>-0.0038</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>13.8614</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3702.5714</v>
       </c>
       <c r="F7" s="1">
         <v>648.5654</v>
       </c>
       <c r="G7" s="1">
-        <v>4351.1367</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>51056.6081</v>
       </c>
       <c r="I7" s="1">
-        <v>58990.0238</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.5574</v>
+        <v>51056.6081</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48990.0238</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.2314</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8990.023800000001</v>
       </c>
-      <c r="O7" s="1">
-        <v>1009.9762</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61009.9762</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0641</v>
+        <v>0.0775</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>14.3229</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>4351.1367</v>
       </c>
       <c r="F8" s="1">
         <v>561.6266000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>4912.7634</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>61997.6069</v>
       </c>
       <c r="I8" s="1">
-        <v>67034.1458</v>
+        <v>1009.9762</v>
       </c>
       <c r="J8" s="1">
-        <v>13.6449</v>
+        <v>63007.5831</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57034.1458</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.1079</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8044.122</v>
       </c>
-      <c r="O8" s="1">
-        <v>2965.8542</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72965.8542</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0275</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>14.2341</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4912.7634</v>
       </c>
       <c r="F9" s="1">
         <v>736.8744</v>
       </c>
       <c r="G9" s="1">
-        <v>5649.6377</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>69565.7117</v>
       </c>
       <c r="I9" s="1">
-        <v>77522.8891</v>
+        <v>2965.8542</v>
       </c>
       <c r="J9" s="1">
-        <v>13.7217</v>
+        <v>72531.56600000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>67522.8891</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.7444</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10488.7433</v>
       </c>
-      <c r="O9" s="1">
-        <v>2477.1109</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82477.1109</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0059</v>
+        <v>-0.0065</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>13.7456</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>5649.6377</v>
       </c>
       <c r="F10" s="1">
         <v>907.7166999999999</v>
       </c>
       <c r="G10" s="1">
-        <v>6557.3544</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>89667.23179999999</v>
+        <v>77254.841</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>2477.1109</v>
       </c>
       <c r="J10" s="1">
-        <v>13.725</v>
+        <v>79731.952</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.1602</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-12477.1109</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89667.23179999999</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0304</v>
+        <v>-0.0339</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>14.5325</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>6557.3544</v>
       </c>
       <c r="F11" s="1">
         <v>359.6621</v>
       </c>
       <c r="G11" s="1">
-        <v>6917.0166</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>94800.3288</v>
       </c>
       <c r="I11" s="1">
-        <v>95226.78969999999</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.767</v>
+        <v>94800.3288</v>
       </c>
       <c r="K11" s="1">
+        <v>85226.78969999999</v>
+      </c>
+      <c r="L11" s="1">
+        <v>12.9971</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.75</v>
       </c>
-      <c r="L11" s="1">
-        <v>4426.2142</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-800.5753999999999</v>
+        <v>3813.5055</v>
       </c>
       <c r="O11" s="1">
-        <v>9199.4246</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>109199.4246</v>
+        <v>-1413.2842</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0956</v>
+        <v>0.0565</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>14.0538</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>6917.0166</v>
       </c>
       <c r="F12" s="1">
         <v>950.8603000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>7867.8769</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>96706.1167</v>
       </c>
       <c r="I12" s="1">
-        <v>108589.9907</v>
+        <v>8586.7158</v>
       </c>
       <c r="J12" s="1">
-        <v>13.8017</v>
+        <v>105292.8325</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>98589.99069999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.2533</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-13363.201</v>
       </c>
-      <c r="O12" s="1">
-        <v>5836.2236</v>
-      </c>
-      <c r="P12" s="1">
-        <v>115836.2236</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0282</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>13.1873</v>
       </c>
       <c r="E13" s="1">
+        <v>7867.8769</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1154.4073</v>
+      </c>
+      <c r="G13" s="1">
         <v>120000</v>
       </c>
-      <c r="F13" s="1">
-        <v>1200.8693</v>
-      </c>
-      <c r="G13" s="1">
-        <v>9068.7462</v>
-      </c>
       <c r="H13" s="1">
-        <v>118971.9742</v>
+        <v>103217.8901</v>
       </c>
       <c r="I13" s="1">
-        <v>124426.2142</v>
+        <v>5223.5148</v>
       </c>
       <c r="J13" s="1">
-        <v>13.7203</v>
+        <v>108441.4049</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113813.5055</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.4656</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-15836.2236</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>118971.9742</v>
+        <v>-15223.5148</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0545</v>
+        <v>-0.0594</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,43 +2092,43 @@
         <v>13.0538</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9022.284100000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9068.7462</v>
+        <v>-9022.284100000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>117164.2841</v>
       </c>
       <c r="I14" s="1">
-        <v>124426.2142</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.7203</v>
+        <v>117164.2841</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113813.5055</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.6147</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>117767.6447</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>117767.6447</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117767.6447</v>
+        <v>117164.2841</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.08690000000000001</v>
+        <v>-0.0108</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>13.7208</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>728.8205</v>
       </c>
       <c r="G2" s="1">
-        <v>728.8205</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.108</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.7208</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.108</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>14.2021</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>728.8205</v>
       </c>
       <c r="F3" s="1">
         <v>690.307</v>
       </c>
       <c r="G3" s="1">
-        <v>1419.1274</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10297.0672</v>
       </c>
       <c r="I3" s="1">
-        <v>19803.8084</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.9549</v>
+        <v>10297.0672</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9803.8084</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.4516</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9803.8084</v>
       </c>
-      <c r="O3" s="1">
-        <v>196.1916</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20246.1916</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0149</v>
+        <v>0.0297</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>13.9876</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1419.1274</v>
       </c>
       <c r="F4" s="1">
         <v>728.9450000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>2148.0725</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29890.6432</v>
+        <v>19747.3001</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>196.1916</v>
       </c>
       <c r="J4" s="1">
-        <v>13.966</v>
+        <v>19943.4917</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.0932</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10196.1916</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29890.6432</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0118</v>
+        <v>-0.0174</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>12.8818</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2148.0725</v>
       </c>
       <c r="F5" s="1">
         <v>776.289</v>
       </c>
       <c r="G5" s="1">
-        <v>2924.3615</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>37475.6926</v>
+        <v>27527.5487</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.6782</v>
+        <v>27527.5487</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.966</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>37475.6926</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0605</v>
+        <v>-0.08069999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>12.8509</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2924.3615</v>
       </c>
       <c r="F6" s="1">
         <v>778.1556</v>
       </c>
       <c r="G6" s="1">
-        <v>3702.5171</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>47333.7193</v>
+        <v>37385.6222</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.5043</v>
+        <v>37385.6222</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.6782</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>47333.7193</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.003</v>
+        <v>-0.0038</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>13.8614</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3702.5171</v>
       </c>
       <c r="F7" s="1">
         <v>703.3728</v>
       </c>
       <c r="G7" s="1">
-        <v>4405.8899</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>51055.8597</v>
       </c>
       <c r="I7" s="1">
-        <v>59749.7316</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.5613</v>
+        <v>51055.8597</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49749.7316</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.4367</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9749.731599999999</v>
       </c>
-      <c r="O7" s="1">
-        <v>250.2684</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61005.2872</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.064</v>
+        <v>0.0775</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>14.3229</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>4405.8899</v>
       </c>
       <c r="F8" s="1">
         <v>581.1821</v>
       </c>
       <c r="G8" s="1">
-        <v>4987.072</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>62777.7628</v>
       </c>
       <c r="I8" s="1">
-        <v>68073.94439999999</v>
+        <v>250.2684</v>
       </c>
       <c r="J8" s="1">
-        <v>13.6501</v>
+        <v>63028.0313</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58073.9444</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.181</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8324.2129</v>
       </c>
-      <c r="O8" s="1">
-        <v>1926.0556</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72984.84940000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0279</v>
+        <v>0.0323</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>14.2341</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4987.072</v>
       </c>
       <c r="F9" s="1">
         <v>762.4293</v>
       </c>
       <c r="G9" s="1">
-        <v>5749.5013</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>70617.93670000001</v>
       </c>
       <c r="I9" s="1">
-        <v>78926.4391</v>
+        <v>1926.0556</v>
       </c>
       <c r="J9" s="1">
-        <v>13.7275</v>
+        <v>72543.9923</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>68926.4391</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.821</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10852.4947</v>
       </c>
-      <c r="O9" s="1">
-        <v>1073.5609</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82487.6488</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.006</v>
+        <v>-0.0066</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>13.7456</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5749.5013</v>
       </c>
       <c r="F10" s="1">
         <v>805.6077</v>
       </c>
       <c r="G10" s="1">
-        <v>6555.1089</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>89636.5263</v>
+        <v>78620.40519999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>1073.5609</v>
       </c>
       <c r="J10" s="1">
-        <v>13.7297</v>
+        <v>79693.96610000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.9143</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-11073.5609</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89636.5263</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0308</v>
+        <v>-0.0345</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>14.5325</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>6555.1089</v>
       </c>
       <c r="F11" s="1">
         <v>519.6339</v>
       </c>
       <c r="G11" s="1">
-        <v>7074.7428</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>94767.8655</v>
       </c>
       <c r="I11" s="1">
-        <v>97551.57889999999</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.7887</v>
+        <v>94767.8655</v>
       </c>
       <c r="K11" s="1">
+        <v>87551.57889999999</v>
+      </c>
+      <c r="L11" s="1">
+        <v>13.3562</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.75</v>
       </c>
-      <c r="L11" s="1">
-        <v>4424.6985</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-3126.8804</v>
+        <v>3880.9134</v>
       </c>
       <c r="O11" s="1">
-        <v>6873.1196</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>109153.3837</v>
+        <v>-3670.6656</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0955</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>14.0538</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>7074.7428</v>
       </c>
       <c r="F12" s="1">
         <v>992.8112</v>
       </c>
       <c r="G12" s="1">
-        <v>8067.554</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>98911.27159999999</v>
       </c>
       <c r="I12" s="1">
-        <v>111504.3487</v>
+        <v>6329.3344</v>
       </c>
       <c r="J12" s="1">
-        <v>13.8213</v>
+        <v>105240.606</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101504.3487</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.3474</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-13952.7698</v>
       </c>
-      <c r="O12" s="1">
-        <v>2920.3498</v>
-      </c>
-      <c r="P12" s="1">
-        <v>115712.0152</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0289</v>
+        <v>0.0045</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>13.1873</v>
       </c>
       <c r="E13" s="1">
+        <v>8067.554</v>
+      </c>
+      <c r="F13" s="1">
+        <v>938.5214999999999</v>
+      </c>
+      <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
-      <c r="F13" s="1">
-        <v>979.7569999999999</v>
-      </c>
-      <c r="G13" s="1">
-        <v>9047.311</v>
-      </c>
       <c r="H13" s="1">
-        <v>118690.7683</v>
+        <v>105837.4339</v>
       </c>
       <c r="I13" s="1">
-        <v>124424.6985</v>
+        <v>2376.5646</v>
       </c>
       <c r="J13" s="1">
-        <v>13.7527</v>
+        <v>108213.9985</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113880.9134</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.1159</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-12920.3498</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>118690.7683</v>
+        <v>-12376.5646</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0559</v>
+        <v>-0.061</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>13.0538</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9006.075500000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9047.311</v>
+        <v>-9006.075500000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116953.7968</v>
       </c>
       <c r="I14" s="1">
-        <v>124424.6985</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.7527</v>
+        <v>116953.7968</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113880.9134</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.6449</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>117489.2854</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>117489.2854</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117489.2854</v>
+        <v>116953.7968</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.08699999999999999</v>
+        <v>-0.0107</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>13.7208</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>728.8205</v>
       </c>
       <c r="G2" s="1">
-        <v>728.8205</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.108</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.7208</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.108</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>14.2021</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>728.8205</v>
       </c>
       <c r="F3" s="1">
         <v>693.8459</v>
       </c>
       <c r="G3" s="1">
-        <v>1422.6664</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10297.0672</v>
       </c>
       <c r="I3" s="1">
-        <v>19854.0692</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.9555</v>
+        <v>10297.0672</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9854.0692</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.5206</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9854.0692</v>
       </c>
-      <c r="O3" s="1">
-        <v>145.9308</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20245.9308</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0149</v>
+        <v>0.0297</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>13.9876</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1422.6664</v>
       </c>
       <c r="F4" s="1">
         <v>725.3518</v>
       </c>
       <c r="G4" s="1">
-        <v>2148.0182</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29889.888</v>
+        <v>19796.5453</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>145.9308</v>
       </c>
       <c r="J4" s="1">
-        <v>13.9664</v>
+        <v>19942.476</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.0581</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10145.9308</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29889.888</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0118</v>
+        <v>-0.0175</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>12.8818</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2148.0182</v>
       </c>
       <c r="F5" s="1">
         <v>776.289</v>
       </c>
       <c r="G5" s="1">
-        <v>2924.3072</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>37474.9971</v>
+        <v>27526.8532</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.6785</v>
+        <v>27526.8532</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.9664</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>37474.9971</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0605</v>
+        <v>-0.08069999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>12.8509</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2924.3072</v>
       </c>
       <c r="F6" s="1">
         <v>778.1556</v>
       </c>
       <c r="G6" s="1">
-        <v>3702.4628</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>47333.0255</v>
+        <v>37384.9284</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.5045</v>
+        <v>37384.9284</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.6785</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>47333.0255</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.003</v>
+        <v>-0.0038</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>13.8614</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3702.4628</v>
       </c>
       <c r="F7" s="1">
         <v>721.4279</v>
       </c>
       <c r="G7" s="1">
-        <v>4423.8907</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61003.2407</v>
+        <v>51055.1114</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.5627</v>
+        <v>51055.1114</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.5045</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61003.2407</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.064</v>
+        <v>0.0775</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>14.3229</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>4423.8907</v>
       </c>
       <c r="F8" s="1">
         <v>638.7367</v>
       </c>
       <c r="G8" s="1">
-        <v>5062.6274</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>63034.2489</v>
       </c>
       <c r="I8" s="1">
-        <v>69148.5613</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.6586</v>
+        <v>63034.2489</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59148.5613</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.3703</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9148.561299999999</v>
       </c>
-      <c r="O8" s="1">
-        <v>851.4387</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72986.7908</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0279</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>14.2341</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>5062.6274</v>
       </c>
       <c r="F9" s="1">
         <v>762.3551</v>
       </c>
       <c r="G9" s="1">
-        <v>5824.9824</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82482.91650000001</v>
+        <v>71687.8158</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>851.4387</v>
       </c>
       <c r="J9" s="1">
-        <v>13.7339</v>
+        <v>72539.2545</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.8268</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10851.4387</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82482.91650000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0061</v>
+        <v>-0.0068</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>13.7456</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5824.9824</v>
       </c>
       <c r="F10" s="1">
         <v>727.5055</v>
       </c>
       <c r="G10" s="1">
-        <v>6552.488</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>89600.68640000001</v>
+        <v>79652.5575</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.7352</v>
+        <v>79652.5575</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.7339</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89600.68640000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0312</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>14.5325</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>6552.488</v>
       </c>
       <c r="F11" s="1">
         <v>684.2418</v>
       </c>
       <c r="G11" s="1">
-        <v>7236.7297</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>94729.974</v>
       </c>
       <c r="I11" s="1">
-        <v>99943.7433</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.8106</v>
+        <v>94729.974</v>
       </c>
       <c r="K11" s="1">
+        <v>89943.7433</v>
+      </c>
+      <c r="L11" s="1">
+        <v>13.7267</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.75</v>
       </c>
-      <c r="L11" s="1">
-        <v>4422.9294</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-5520.8139</v>
+        <v>3931.8632</v>
       </c>
       <c r="O11" s="1">
-        <v>4479.1861</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>109101.3115</v>
+        <v>-6011.8801</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0954</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>14.0538</v>
       </c>
       <c r="E12" s="1">
+        <v>7236.7297</v>
+      </c>
+      <c r="F12" s="1">
+        <v>995.3265</v>
+      </c>
+      <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
-      <c r="F12" s="1">
-        <v>1030.2684</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8266.998100000001</v>
-      </c>
       <c r="H12" s="1">
-        <v>115580.0742</v>
+        <v>101175.9947</v>
       </c>
       <c r="I12" s="1">
-        <v>114422.9294</v>
+        <v>3988.1199</v>
       </c>
       <c r="J12" s="1">
-        <v>13.8409</v>
+        <v>105164.1146</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103931.8632</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.3617</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-14479.1861</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>115580.0742</v>
+        <v>-13988.1199</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0296</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>13.1873</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>8232.0563</v>
       </c>
       <c r="F13" s="1">
         <v>758.3053</v>
       </c>
       <c r="G13" s="1">
-        <v>9025.3035</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>118402.0538</v>
+        <v>107995.5228</v>
       </c>
       <c r="I13" s="1">
-        <v>124422.9294</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>13.786</v>
+        <v>107995.5228</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113931.8632</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.84</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>118402.0538</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0572</v>
+        <v>-0.0622</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>13.0538</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8990.3616</v>
       </c>
       <c r="F14" s="1">
-        <v>-9025.3035</v>
+        <v>-8990.3616</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116749.7347</v>
       </c>
       <c r="I14" s="1">
-        <v>124422.9294</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.786</v>
+        <v>116749.7347</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113931.8632</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.6727</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>117203.4935</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>117203.4935</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117203.4935</v>
+        <v>116749.7347</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0872</v>
+        <v>-0.0106</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>13.7208</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>728.8205</v>
       </c>
       <c r="G2" s="1">
-        <v>728.8205</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.108</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.7208</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.108</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>14.2021</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>728.8205</v>
       </c>
       <c r="F3" s="1">
         <v>697.3849</v>
       </c>
       <c r="G3" s="1">
-        <v>1426.2054</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10297.0672</v>
       </c>
       <c r="I3" s="1">
-        <v>19904.33</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.9561</v>
+        <v>10297.0672</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9904.33</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.5895</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9904.33</v>
       </c>
-      <c r="O3" s="1">
-        <v>95.67</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20245.67</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0149</v>
+        <v>0.0297</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>13.9876</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1426.2054</v>
       </c>
       <c r="F4" s="1">
         <v>721.7586</v>
       </c>
       <c r="G4" s="1">
-        <v>2147.9639</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29889.1329</v>
+        <v>19845.7904</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>95.67</v>
       </c>
       <c r="J4" s="1">
-        <v>13.9667</v>
+        <v>19941.4604</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>14.0232</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10095.67</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29889.1329</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0118</v>
+        <v>-0.0175</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>12.8818</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2147.9639</v>
       </c>
       <c r="F5" s="1">
         <v>776.289</v>
       </c>
       <c r="G5" s="1">
-        <v>2924.253</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>37474.3016</v>
+        <v>27526.1577</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.6787</v>
+        <v>27526.1577</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.9667</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>37474.3016</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0605</v>
+        <v>-0.08069999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>12.8509</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2924.253</v>
       </c>
       <c r="F6" s="1">
         <v>778.1556</v>
       </c>
       <c r="G6" s="1">
-        <v>3702.4086</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>47332.3317</v>
+        <v>37384.2346</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.5047</v>
+        <v>37384.2346</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.6787</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>47332.3317</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.003</v>
+        <v>-0.0038</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>13.8614</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3702.4086</v>
       </c>
       <c r="F7" s="1">
         <v>721.4279</v>
       </c>
       <c r="G7" s="1">
-        <v>4423.8364</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>61002.4923</v>
+        <v>51054.363</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.5629</v>
+        <v>51054.363</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.5047</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61002.4923</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.064</v>
+        <v>0.0775</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>14.3229</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>4423.8364</v>
       </c>
       <c r="F8" s="1">
         <v>698.1826</v>
       </c>
       <c r="G8" s="1">
-        <v>5122.0191</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>72981.6007</v>
+        <v>63033.4756</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.6665</v>
+        <v>63033.4756</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.5629</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72981.6007</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0279</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>14.2341</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>5122.0191</v>
       </c>
       <c r="F9" s="1">
         <v>702.5383</v>
       </c>
       <c r="G9" s="1">
-        <v>5824.5573</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>82476.89659999999</v>
+        <v>72528.81419999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.7349</v>
+        <v>72528.81419999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.6665</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82476.89659999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0061</v>
+        <v>-0.0069</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>13.7456</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5824.5573</v>
       </c>
       <c r="F10" s="1">
         <v>727.5055</v>
       </c>
       <c r="G10" s="1">
-        <v>6552.0629</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>89594.8731</v>
+        <v>79646.7442</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.7361</v>
+        <v>79646.7442</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.7349</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>89594.8731</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0312</v>
+        <v>-0.0349</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>14.5325</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>6552.0629</v>
       </c>
       <c r="F11" s="1">
         <v>688.1129</v>
       </c>
       <c r="G11" s="1">
-        <v>7240.1757</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>104671.9442</v>
+        <v>94723.8279</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.8118</v>
+        <v>94723.8279</v>
       </c>
       <c r="K11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>13.7361</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.75</v>
       </c>
-      <c r="L11" s="1">
-        <v>4422.6424</v>
-      </c>
-      <c r="M11" s="1">
-        <v>10000</v>
-      </c>
       <c r="N11" s="1">
-        <v>-5577.3576</v>
+        <v>3931.5762</v>
       </c>
       <c r="O11" s="1">
-        <v>4422.6424</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>109094.5866</v>
+        <v>-6068.4238</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0954</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>14.0538</v>
       </c>
       <c r="E12" s="1">
+        <v>7240.1757</v>
+      </c>
+      <c r="F12" s="1">
+        <v>991.3031</v>
+      </c>
+      <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
-      <c r="F12" s="1">
-        <v>1026.245</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8266.420700000001</v>
-      </c>
       <c r="H12" s="1">
-        <v>115572.0016</v>
+        <v>101224.1725</v>
       </c>
       <c r="I12" s="1">
-        <v>114422.6424</v>
+        <v>3931.5762</v>
       </c>
       <c r="J12" s="1">
-        <v>13.8419</v>
+        <v>105155.7487</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103931.5762</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>14.3548</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-14422.6424</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>115572.0016</v>
+        <v>-13931.5762</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0296</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>13.1873</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>8231.4789</v>
       </c>
       <c r="F13" s="1">
         <v>758.3053</v>
       </c>
       <c r="G13" s="1">
-        <v>9024.7261</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>118394.4789</v>
+        <v>107987.9479</v>
       </c>
       <c r="I13" s="1">
-        <v>124422.6424</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>13.7869</v>
+        <v>107987.9479</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>113931.5762</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.841</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>118394.4789</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0572</v>
+        <v>-0.0622</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>13.0538</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8989.7842</v>
       </c>
       <c r="F14" s="1">
-        <v>-9024.7261</v>
+        <v>-8989.7842</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>116742.2365</v>
       </c>
       <c r="I14" s="1">
-        <v>124422.6424</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.7869</v>
+        <v>116742.2365</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>113931.5762</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.6734</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>117195.9953</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>117195.9953</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>117195.9953</v>
+        <v>116742.2365</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0872</v>
+        <v>-0.0106</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>13.0186</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.7712</v>
+        <v>12.6607</v>
       </c>
       <c r="D3" s="1">
-        <v>13.7203</v>
+        <v>12.6147</v>
       </c>
       <c r="E3" s="1">
-        <v>13.7527</v>
+        <v>12.6449</v>
       </c>
       <c r="F3" s="1">
-        <v>13.786</v>
+        <v>12.6727</v>
       </c>
       <c r="G3" s="1">
-        <v>13.7869</v>
+        <v>12.6734</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.0375</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0832</v>
+        <v>-0.0153</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0789</v>
+        <v>-0.0122</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0815</v>
+        <v>-0.0141</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0842</v>
+        <v>-0.0161</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0843</v>
+        <v>-0.0163</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1561</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1734</v>
+        <v>0.1519</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1727</v>
+        <v>0.1509</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1732</v>
+        <v>0.1517</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1737</v>
+        <v>0.1524</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1737</v>
+        <v>0.1524</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.3707</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.5972</v>
+        <v>-0.2345</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.5749</v>
+        <v>-0.2155</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.5879</v>
+        <v>-0.2271</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.6017</v>
+        <v>-0.2392</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.6025</v>
+        <v>-0.2402</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0412</v>
+        <v>-0.2228</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.0351</v>
+        <v>-0.0445</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.0391</v>
+        <v>-0.0473</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.043</v>
+        <v>-0.0499</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.0431</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4422.5727</v>
+        <v>3931.5065</v>
       </c>
       <c r="D8" s="1">
-        <v>4426.2142</v>
+        <v>3813.5055</v>
       </c>
       <c r="E8" s="1">
-        <v>4424.6985</v>
+        <v>3880.9134</v>
       </c>
       <c r="F8" s="1">
-        <v>4422.9294</v>
+        <v>3931.8632</v>
       </c>
       <c r="G8" s="1">
-        <v>4422.6424</v>
+        <v>3931.5762</v>
       </c>
     </row>
   </sheetData>
